--- a/resources/import/supplier_invoices_export.xlsx
+++ b/resources/import/supplier_invoices_export.xlsx
@@ -294,40 +294,11 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2752725" cy="2162175"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B14:F16" displayName="Table1" name="Table1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B9:F11" displayName="Table1" name="Table1" id="1">
   <tableColumns count="5">
     <tableColumn name="تاريخ الدفع" id="1"/>
     <tableColumn name="المدفوع" id="2"/>
@@ -639,7 +610,9 @@
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -664,154 +637,166 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -835,11 +820,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -864,13 +849,9 @@
     <row r="12">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -923,21 +904,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3"/>
-      <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -961,11 +932,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -989,11 +960,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -28679,146 +28650,6 @@
       <c r="Y1004" s="3"/>
       <c r="Z1004" s="3"/>
     </row>
-    <row r="1005">
-      <c r="A1005" s="3"/>
-      <c r="B1005" s="3"/>
-      <c r="C1005" s="3"/>
-      <c r="D1005" s="3"/>
-      <c r="E1005" s="3"/>
-      <c r="F1005" s="3"/>
-      <c r="G1005" s="3"/>
-      <c r="H1005" s="3"/>
-      <c r="I1005" s="3"/>
-      <c r="J1005" s="3"/>
-      <c r="K1005" s="3"/>
-      <c r="L1005" s="3"/>
-      <c r="M1005" s="3"/>
-      <c r="N1005" s="3"/>
-      <c r="O1005" s="3"/>
-      <c r="P1005" s="3"/>
-      <c r="Q1005" s="3"/>
-      <c r="R1005" s="3"/>
-      <c r="S1005" s="3"/>
-      <c r="T1005" s="3"/>
-      <c r="U1005" s="3"/>
-      <c r="V1005" s="3"/>
-      <c r="W1005" s="3"/>
-      <c r="X1005" s="3"/>
-      <c r="Y1005" s="3"/>
-      <c r="Z1005" s="3"/>
-    </row>
-    <row r="1006">
-      <c r="A1006" s="3"/>
-      <c r="B1006" s="3"/>
-      <c r="C1006" s="3"/>
-      <c r="D1006" s="3"/>
-      <c r="E1006" s="3"/>
-      <c r="F1006" s="3"/>
-      <c r="G1006" s="3"/>
-      <c r="H1006" s="3"/>
-      <c r="I1006" s="3"/>
-      <c r="J1006" s="3"/>
-      <c r="K1006" s="3"/>
-      <c r="L1006" s="3"/>
-      <c r="M1006" s="3"/>
-      <c r="N1006" s="3"/>
-      <c r="O1006" s="3"/>
-      <c r="P1006" s="3"/>
-      <c r="Q1006" s="3"/>
-      <c r="R1006" s="3"/>
-      <c r="S1006" s="3"/>
-      <c r="T1006" s="3"/>
-      <c r="U1006" s="3"/>
-      <c r="V1006" s="3"/>
-      <c r="W1006" s="3"/>
-      <c r="X1006" s="3"/>
-      <c r="Y1006" s="3"/>
-      <c r="Z1006" s="3"/>
-    </row>
-    <row r="1007">
-      <c r="A1007" s="3"/>
-      <c r="B1007" s="3"/>
-      <c r="C1007" s="3"/>
-      <c r="D1007" s="3"/>
-      <c r="E1007" s="3"/>
-      <c r="F1007" s="3"/>
-      <c r="G1007" s="3"/>
-      <c r="H1007" s="3"/>
-      <c r="I1007" s="3"/>
-      <c r="J1007" s="3"/>
-      <c r="K1007" s="3"/>
-      <c r="L1007" s="3"/>
-      <c r="M1007" s="3"/>
-      <c r="N1007" s="3"/>
-      <c r="O1007" s="3"/>
-      <c r="P1007" s="3"/>
-      <c r="Q1007" s="3"/>
-      <c r="R1007" s="3"/>
-      <c r="S1007" s="3"/>
-      <c r="T1007" s="3"/>
-      <c r="U1007" s="3"/>
-      <c r="V1007" s="3"/>
-      <c r="W1007" s="3"/>
-      <c r="X1007" s="3"/>
-      <c r="Y1007" s="3"/>
-      <c r="Z1007" s="3"/>
-    </row>
-    <row r="1008">
-      <c r="A1008" s="3"/>
-      <c r="B1008" s="3"/>
-      <c r="C1008" s="3"/>
-      <c r="D1008" s="3"/>
-      <c r="E1008" s="3"/>
-      <c r="F1008" s="3"/>
-      <c r="G1008" s="3"/>
-      <c r="H1008" s="3"/>
-      <c r="I1008" s="3"/>
-      <c r="J1008" s="3"/>
-      <c r="K1008" s="3"/>
-      <c r="L1008" s="3"/>
-      <c r="M1008" s="3"/>
-      <c r="N1008" s="3"/>
-      <c r="O1008" s="3"/>
-      <c r="P1008" s="3"/>
-      <c r="Q1008" s="3"/>
-      <c r="R1008" s="3"/>
-      <c r="S1008" s="3"/>
-      <c r="T1008" s="3"/>
-      <c r="U1008" s="3"/>
-      <c r="V1008" s="3"/>
-      <c r="W1008" s="3"/>
-      <c r="X1008" s="3"/>
-      <c r="Y1008" s="3"/>
-      <c r="Z1008" s="3"/>
-    </row>
-    <row r="1009">
-      <c r="A1009" s="3"/>
-      <c r="B1009" s="3"/>
-      <c r="C1009" s="3"/>
-      <c r="D1009" s="3"/>
-      <c r="E1009" s="3"/>
-      <c r="F1009" s="3"/>
-      <c r="G1009" s="3"/>
-      <c r="H1009" s="3"/>
-      <c r="I1009" s="3"/>
-      <c r="J1009" s="3"/>
-      <c r="K1009" s="3"/>
-      <c r="L1009" s="3"/>
-      <c r="M1009" s="3"/>
-      <c r="N1009" s="3"/>
-      <c r="O1009" s="3"/>
-      <c r="P1009" s="3"/>
-      <c r="Q1009" s="3"/>
-      <c r="R1009" s="3"/>
-      <c r="S1009" s="3"/>
-      <c r="T1009" s="3"/>
-      <c r="U1009" s="3"/>
-      <c r="V1009" s="3"/>
-      <c r="W1009" s="3"/>
-      <c r="X1009" s="3"/>
-      <c r="Y1009" s="3"/>
-      <c r="Z1009" s="3"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">

--- a/resources/import/supplier_invoices_export.xlsx
+++ b/resources/import/supplier_invoices_export.xlsx
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -48,10 +48,19 @@
     <font>
       <sz val="14.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Impact"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Impact"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Impact"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,140 +73,65 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF38761D"/>
+        <bgColor rgb="FF38761D"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF356854"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF356854"/>
+        <color rgb="FF000000"/>
       </left>
+    </border>
+    <border>
       <right style="thin">
-        <color rgb="FF356854"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF284E3F"/>
-      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <bottom style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF356854"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF284E3F"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -213,101 +147,26 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF356854"/>
-          <bgColor rgb="FF356854"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6F8F9"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Sheet1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B9:F11" displayName="Table1" name="Table1" id="1">
-  <tableColumns count="5">
-    <tableColumn name="تاريخ الدفع" id="1"/>
-    <tableColumn name="المدفوع" id="2"/>
-    <tableColumn name="تاريخ الاستحقاق" id="3"/>
-    <tableColumn name="الاجمالي" id="4"/>
-    <tableColumn name="تاريخ التوريد" id="5"/>
-  </tableColumns>
-  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -757,16 +616,16 @@
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="3"/>
@@ -792,11 +651,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -820,11 +679,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -876,11 +735,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -28652,8 +28511,5 @@
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/resources/import/supplier_invoices_export.xlsx
+++ b/resources/import/supplier_invoices_export.xlsx
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -54,6 +54,10 @@
       <sz val="14.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Impact"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
@@ -156,7 +160,7 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -679,11 +683,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -707,11 +711,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -735,11 +739,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -763,11 +767,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -28509,6 +28513,34 @@
       <c r="Y1004" s="3"/>
       <c r="Z1004" s="3"/>
     </row>
+    <row r="1005">
+      <c r="A1005" s="3"/>
+      <c r="B1005" s="3"/>
+      <c r="C1005" s="3"/>
+      <c r="D1005" s="3"/>
+      <c r="E1005" s="3"/>
+      <c r="F1005" s="3"/>
+      <c r="G1005" s="3"/>
+      <c r="H1005" s="3"/>
+      <c r="I1005" s="3"/>
+      <c r="J1005" s="3"/>
+      <c r="K1005" s="3"/>
+      <c r="L1005" s="3"/>
+      <c r="M1005" s="3"/>
+      <c r="N1005" s="3"/>
+      <c r="O1005" s="3"/>
+      <c r="P1005" s="3"/>
+      <c r="Q1005" s="3"/>
+      <c r="R1005" s="3"/>
+      <c r="S1005" s="3"/>
+      <c r="T1005" s="3"/>
+      <c r="U1005" s="3"/>
+      <c r="V1005" s="3"/>
+      <c r="W1005" s="3"/>
+      <c r="X1005" s="3"/>
+      <c r="Y1005" s="3"/>
+      <c r="Z1005" s="3"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
